--- a/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
+++ b/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPtFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\hydgn\HPtFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAA91C4-5F03-4D47-B867-484F2D39F059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="1320" yWindow="2955" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="HPtFM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>HPtFM Hydrogen Pathway to Fuel Mappings</t>
   </si>
@@ -112,12 +124,18 @@
   </si>
   <si>
     <t>Fuel Used by Pathway (dimensionless)</t>
+  </si>
+  <si>
+    <t>electrolysis with guaranteed clean electricity</t>
+  </si>
+  <si>
+    <t>natural gas reforming with CCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,10 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -447,19 +464,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,52 +484,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -524,60 +541,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.73046875" customWidth="1"/>
-    <col min="2" max="8" width="13.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" customWidth="1"/>
-    <col min="10" max="11" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -612,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -647,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -682,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -717,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -749,6 +766,96 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:K7" si="0">C2</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:K8" si="1">C3</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
